--- a/领菌/4.8-领菌表-第二批.xlsx
+++ b/领菌/4.8-领菌表-第二批.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenzhihao\Desktop\筛菌\领菌\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F294A632-FADB-447C-A0A7-5D60EB73D61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEEAAD5-5B1E-4082-ABC5-D142581BE195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="8090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="1570" windowWidth="19200" windowHeight="11710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
